--- a/map/map_0311.xlsx
+++ b/map/map_0311.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PycharmProjects\doc2xlsx\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docx2xlsx\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1953ED5F-3FCB-45CD-9526-D0EFB79FD975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23333BBB-2206-45C2-B8C0-25EACC6412AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="5076" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="346">
   <si>
     <t>展品单位</t>
   </si>
@@ -1202,6 +1202,22 @@
   </si>
   <si>
     <t>湖州市</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJY-QZ-DZKD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学长三角研究院（衢州）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZKD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>衢州市</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2698,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F135"/>
+  <dimension ref="A2:F136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -4576,59 +4592,59 @@
     </row>
     <row r="95" spans="1:6" ht="22.35" customHeight="1">
       <c r="A95" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="22.35" customHeight="1">
+      <c r="A96" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B96" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C96" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D96" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="E96" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="F95" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="22.35" customHeight="1">
-      <c r="A96" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="23" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="22.35" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>193</v>
@@ -4636,19 +4652,19 @@
     </row>
     <row r="98" spans="1:6" ht="22.35" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>193</v>
@@ -4656,19 +4672,19 @@
     </row>
     <row r="99" spans="1:6" ht="22.35" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="F99" s="16" t="s">
         <v>193</v>
@@ -4676,19 +4692,19 @@
     </row>
     <row r="100" spans="1:6" ht="22.35" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F100" s="16" t="s">
         <v>193</v>
@@ -4696,19 +4712,19 @@
     </row>
     <row r="101" spans="1:6" ht="22.35" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="F101" s="16" t="s">
         <v>193</v>
@@ -4716,19 +4732,19 @@
     </row>
     <row r="102" spans="1:6" ht="22.35" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F102" s="16" t="s">
         <v>193</v>
@@ -4736,19 +4752,19 @@
     </row>
     <row r="103" spans="1:6" ht="22.35" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>193</v>
@@ -4756,19 +4772,19 @@
     </row>
     <row r="104" spans="1:6" ht="22.35" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>193</v>
@@ -4776,31 +4792,43 @@
     </row>
     <row r="105" spans="1:6" ht="22.35" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
+    <row r="106" spans="1:6" ht="22.35" customHeight="1">
+      <c r="A106" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="11"/>
@@ -5034,11 +5062,19 @@
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
     </row>
+    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E64 E95:E135" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E64 E96:E136" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>",省本级,杭州市,宁波市,温州市,湖州市,嘉兴市,绍兴市,金华市,衢州市,舟山市,台州市,丽水市"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5062,9 +5098,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5075,7 +5109,9 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5088,7 +5124,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5106,7 +5142,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
